--- a/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
+++ b/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MatsAlm\dev\EPPlusSoftware\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OssianEdström\Documents\Epplus_Repos\WebSamplesQuick\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9246347-830E-440F-951D-5CB099E86449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7541BD8-263D-40CC-A06A-BE392263CD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="6630" windowWidth="38640" windowHeight="21120" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
+    <workbookView xWindow="19755" yWindow="1935" windowWidth="28800" windowHeight="15315" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>City</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>Student Loan</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>"2+3"</t>
+  </si>
+  <si>
+    <t>"5+3"</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>Numbers</t>
   </si>
 </sst>
 </file>
@@ -150,7 +165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +177,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,7 +217,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -240,13 +275,23 @@
   <autoFilter ref="J3:M15" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D00BC406-9FEF-482C-AC80-FA77E1F21BF2}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="2">
       <calculatedColumnFormula>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}" name="tblExpression" displayName="tblExpression" ref="A17:A24" totalsRowShown="0">
+  <autoFilter ref="A17:A24" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9620788F-A5CF-4F02-931A-2E2BAEC57109}" name="Numbers"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -567,20 +612,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BD51E-2CE5-4044-B083-7E3E2BAED1E8}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -588,7 +633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -623,7 +668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -659,7 +704,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -695,7 +740,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -731,7 +776,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -767,7 +812,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -803,7 +848,7 @@
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -839,7 +884,7 @@
         <v>0.25714285714285712</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -875,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -911,7 +956,7 @@
         <v>-0.16666666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -947,7 +992,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1028,7 @@
         <v>-3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>33</v>
       </c>
@@ -998,7 +1043,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>34</v>
       </c>
@@ -1013,9 +1058,63 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A18:A24">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(A18) = FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>ISNUMBER(A18)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:G13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1027,7 +1126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M15">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1042,9 +1141,10 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
+++ b/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OssianEdström\Documents\Epplus_Repos\WebSamplesQuick\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7541BD8-263D-40CC-A06A-BE392263CD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3847CE7-2B91-421D-A1F0-B10F0DD98239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19755" yWindow="1935" windowWidth="28800" windowHeight="15315" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>City</t>
   </si>
@@ -155,7 +177,88 @@
     <t>something</t>
   </si>
   <si>
-    <t>Numbers</t>
+    <t>UniqueDuplicates</t>
+  </si>
+  <si>
+    <t>Two</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>AboveOrBelowAverage</t>
+  </si>
+  <si>
+    <t>Top 10</t>
+  </si>
+  <si>
+    <t>Values between 5 and 10</t>
+  </si>
+  <si>
+    <t>IsNumber</t>
+  </si>
+  <si>
+    <t>ContainsText "Blue"</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>something blue</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>I have blue in me</t>
+  </si>
+  <si>
+    <t>I don't</t>
+  </si>
+  <si>
+    <t>Dates Occuring yesterday-today-tomorrow</t>
+  </si>
+  <si>
+    <t>Blanks</t>
+  </si>
+  <si>
+    <t>not blank</t>
+  </si>
+  <si>
+    <t>not blank either</t>
+  </si>
+  <si>
+    <t>No blanks here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	</t>
+  </si>
+  <si>
+    <t>^That cell has a U+0009 character and is therefore not blank</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>All good here</t>
+  </si>
+  <si>
+    <t>oops</t>
   </si>
 </sst>
 </file>
@@ -208,16 +311,138 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -231,6 +456,63 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -270,14 +552,34 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}" name="Blanks" displayName="Blanks" ref="A41:A48" totalsRowShown="0">
+  <autoFilter ref="A41:A48" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9E753DAE-994A-47D2-8211-3E40EA31EB9D}" name="Blanks"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{23F9F9E4-85CD-474E-A45F-13288AADDB6B}" name="Errors" displayName="Errors" ref="C41:C47" totalsRowShown="0">
+  <autoFilter ref="C41:C47" xr:uid="{23F9F9E4-85CD-474E-A45F-13288AADDB6B}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{57844BA5-6626-4025-9A85-E5F6B422247A}" name="Errors"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}" name="tblDataBars" displayName="tblDataBars" ref="J3:M15" totalsRowShown="0">
   <autoFilter ref="J3:M15" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D00BC406-9FEF-482C-AC80-FA77E1F21BF2}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="20">
       <calculatedColumnFormula>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -289,7 +591,69 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}" name="tblExpression" displayName="tblExpression" ref="A17:A24" totalsRowShown="0">
   <autoFilter ref="A17:A24" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9620788F-A5CF-4F02-931A-2E2BAEC57109}" name="Numbers"/>
+    <tableColumn id="1" xr3:uid="{9620788F-A5CF-4F02-931A-2E2BAEC57109}" name="IsNumber"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BB22AC41-6D6F-4644-91D5-4CD52AEA0CB6}" name="UniqueDuplicates" displayName="UniqueDuplicates" ref="C16:C24" totalsRowShown="0" headerRowDxfId="19">
+  <autoFilter ref="C16:C24" xr:uid="{BB22AC41-6D6F-4644-91D5-4CD52AEA0CB6}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{AAB1D7D2-9809-4658-9151-92FF886A6EEB}" name="UniqueDuplicates"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}" name="AboveBelow" displayName="AboveBelow" ref="F16:F25" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="F16:F25" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{96E735DE-A1C1-410A-BDDA-8BBC005E9646}" name="AboveOrBelowAverage"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D097276E-C61D-4937-B60B-9F5F997CFE0F}" name="Top10Tbl" displayName="Top10Tbl" ref="I16:I28" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="I16:I28" xr:uid="{D097276E-C61D-4937-B60B-9F5F997CFE0F}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{28E261E0-9368-4282-B311-DC411F6EA816}" name="Top 10">
+      <calculatedColumnFormula>ROW()</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{1667A648-8A15-4FC0-8C04-51C30B353BA9}" name="BetweenTbl" displayName="BetweenTbl" ref="A28:A38" totalsRowShown="0">
+  <autoFilter ref="A28:A38" xr:uid="{1667A648-8A15-4FC0-8C04-51C30B353BA9}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{779307DB-7878-414C-93FD-F2200869FB37}" name="Values between 5 and 10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D10D35FE-7427-4ECC-B20C-E970621FFE34}" name="ContainsBlue" displayName="ContainsBlue" ref="C28:C36" totalsRowShown="0">
+  <autoFilter ref="C28:C36" xr:uid="{D10D35FE-7427-4ECC-B20C-E970621FFE34}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7794C9BB-11E9-4F1A-8A85-D7DF85B7CFE8}" name="ContainsText &quot;Blue&quot;"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F01E267-C84E-48DB-A307-1E8FA081A155}" name="Dates" displayName="Dates" ref="F28:F36" totalsRowShown="0">
+  <autoFilter ref="F28:F36" xr:uid="{0F01E267-C84E-48DB-A307-1E8FA081A155}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{C1F0A424-F61D-481E-B392-166DF281F282}" name="Dates Occuring yesterday-today-tomorrow" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -612,15 +976,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BD51E-2CE5-4044-B083-7E3E2BAED1E8}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
@@ -1062,59 +1428,350 @@
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17">
+        <v>52</v>
+      </c>
+      <c r="I17">
+        <f>ROW()</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>235</v>
+      </c>
+      <c r="I18">
+        <f>ROW()</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <f>ROW()</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f>ROW()</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="I21">
+        <f>ROW()</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="I22">
+        <f>ROW()</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <f>ROW()</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f>ROW()</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>30</v>
+      </c>
+      <c r="I25">
+        <f>ROW()</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>ROW()</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f>ROW()</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28">
+        <f>ROW()</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="4">
+        <f ca="1" xml:space="preserve"> TODAY() - 1</f>
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4">
+        <f ca="1">TODAY()+1</f>
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4">
+        <f ca="1">TODAY() + 7</f>
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="4">
+        <f ca="1">TODAY() + 8</f>
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4">
+        <f ca="1">TODAY() + 9</f>
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="4">
+        <f ca="1">TODAY() + 10</f>
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="4">
+        <f ca="1">TODAY() + 11</f>
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="e" cm="1">
+        <f t="array" ref="C43">nss</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="e">
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="str">
+        <f>J4</f>
+        <v>Cable TV</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A18:A24">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>ISNUMBER(A18) = FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="14" priority="17">
       <formula>ISNUMBER(A18)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A29:A38">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="between">
+      <formula>5</formula>
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B4:G13">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1125,8 +1782,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C24">
+    <cfRule type="uniqueValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:F25">
+    <cfRule type="aboveAverage" dxfId="10" priority="11" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="9" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:I28">
+    <cfRule type="top10" dxfId="8" priority="10" rank="10"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M4:M15">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1139,12 +1807,52 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="blue">
+      <formula>NOT(ISERROR(SEARCH("blue",C29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F36">
+    <cfRule type="timePeriod" dxfId="6" priority="7" timePeriod="yesterday">
+      <formula>FLOOR(F29,1)=TODAY()-1</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="today">
+      <formula>FLOOR(F29,1)=TODAY()</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="tomorrow">
+      <formula>FLOOR(F29,1)=TODAY()+1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:A48">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(A41))=0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(A41))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C47">
+    <cfRule type="containsErrors" dxfId="1" priority="2">
+      <formula>ISERROR(C42)</formula>
+    </cfRule>
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(C42))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">

--- a/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
+++ b/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OssianEdström\Documents\Epplus_Repos\WebSamplenewnew\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFB3A3C-E966-4B1E-95C1-5D35DA40BBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48579244-F79F-450B-B2D8-14309CD4A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,12 +164,6 @@
     <t>OKDK36978</t>
   </si>
   <si>
-    <t>Serial Number (IsNumber() expression)</t>
-  </si>
-  <si>
-    <t>Year of purchase (&gt;2002 expression)</t>
-  </si>
-  <si>
     <t>Format only cells that contain</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Marshall</t>
   </si>
   <si>
-    <t>Price (Between 250 and 300)</t>
-  </si>
-  <si>
     <t>TGR</t>
   </si>
   <si>
@@ -212,12 +203,6 @@
     <t>REX</t>
   </si>
   <si>
-    <t>Name (Unique: Yellow, Duplicate: Green)</t>
-  </si>
-  <si>
-    <t>HighScores (Duplicate Red)</t>
-  </si>
-  <si>
     <t>White,black,yellow</t>
   </si>
   <si>
@@ -269,9 +254,6 @@
     <t>Harvest Moon: A Wonderful Life</t>
   </si>
   <si>
-    <t>Number of products sold (Above Average green. Below average red)</t>
-  </si>
-  <si>
     <t xml:space="preserve">E.T. The Extra-Terrestrial </t>
   </si>
   <si>
@@ -287,9 +269,6 @@
     <t>Top10</t>
   </si>
   <si>
-    <t>Color Options (ContainsText "Blue")</t>
-  </si>
-  <si>
     <t>Contains blanks and Not contains blanks</t>
   </si>
   <si>
@@ -356,12 +335,6 @@
     <t>$637</t>
   </si>
   <si>
-    <t>Expected update  (Yesterday, Today, Tomorrow)</t>
-  </si>
-  <si>
-    <t>Metacritic score (Top 10 green)</t>
-  </si>
-  <si>
     <t>Animals</t>
   </si>
   <si>
@@ -384,6 +357,33 @@
   </si>
   <si>
     <t>Deer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of products sold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected update </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Options </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price </t>
+  </si>
+  <si>
+    <t>Metacritic score</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HighScores </t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of purchase </t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -517,17 +517,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -542,16 +536,322 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD65656"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED9D9B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CA7E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4A4A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4A4A4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD11111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF6E774"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9523B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -584,610 +884,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD65656"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6E774"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4A4A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD11111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED9D9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6E774"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CA7E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4A4A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9523B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6E774"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4A4A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD11111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED9D9B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6E774"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CA7E8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE4A4A4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD9523B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1209,7 +906,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1286,9 +989,9 @@
   <autoFilter ref="A67:D79" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D00BC406-9FEF-482C-AC80-FA77E1F21BF2}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="63">
+    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="33">
       <calculatedColumnFormula>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1300,19 +1003,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}" name="expressionTbl" displayName="expressionTbl" ref="D44:E51" totalsRowShown="0">
   <autoFilter ref="D44:E51" xr:uid="{D5AF9B96-CEE7-4145-8249-8357BE6664F1}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9620788F-A5CF-4F02-931A-2E2BAEC57109}" name="Year of purchase (&gt;2002 expression)"/>
-    <tableColumn id="2" xr3:uid="{799D9DCE-6175-4DB8-83F9-45ED98161659}" name="Serial Number (IsNumber() expression)"/>
+    <tableColumn id="1" xr3:uid="{9620788F-A5CF-4F02-931A-2E2BAEC57109}" name="Year of purchase "/>
+    <tableColumn id="2" xr3:uid="{799D9DCE-6175-4DB8-83F9-45ED98161659}" name="Serial Number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}" name="averageTbl" displayName="averageTbl" ref="D28:E37" totalsRowShown="0" headerRowDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}" name="averageTbl" displayName="averageTbl" ref="D28:E37" totalsRowShown="0" headerRowDxfId="32">
   <autoFilter ref="D28:E37" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{96E735DE-A1C1-410A-BDDA-8BBC005E9646}" name="Locations"/>
-    <tableColumn id="2" xr3:uid="{F273C724-934C-493C-846E-F3927111113B}" name="Number of products sold (Above Average green. Below average red)"/>
+    <tableColumn id="2" xr3:uid="{F273C724-934C-493C-846E-F3927111113B}" name="Number of products sold "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1323,16 +1026,16 @@
   <autoFilter ref="A17:D24" xr:uid="{1667A648-8A15-4FC0-8C04-51C30B353BA9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{779307DB-7878-414C-93FD-F2200869FB37}" name="Wireless earbuds"/>
-    <tableColumn id="2" xr3:uid="{5B36E36F-5CF5-43EF-AFD0-2BB355AFB152}" name="Price (Between 250 and 300)" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{52897D8D-5C6E-474A-BD7D-7347CFD12E88}" name="Color Options (ContainsText &quot;Blue&quot;)"/>
-    <tableColumn id="4" xr3:uid="{4C8F154B-A419-4C4B-A46E-FEA25C6A3060}" name="Expected update  (Yesterday, Today, Tomorrow)" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{5B36E36F-5CF5-43EF-AFD0-2BB355AFB152}" name="Price " dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{52897D8D-5C6E-474A-BD7D-7347CFD12E88}" name="Color Options "/>
+    <tableColumn id="4" xr3:uid="{4C8F154B-A419-4C4B-A46E-FEA25C6A3060}" name="Expected update " dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}" name="blanksTbl" displayName="blanksTbl" ref="F17:I24" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}" name="blanksTbl" displayName="blanksTbl" ref="F17:I24" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="F17:I24" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9E753DAE-994A-47D2-8211-3E40EA31EB9D}" name="Employee"/>
@@ -1345,29 +1048,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}" name="top10Tbl" displayName="top10Tbl" ref="A28:B40" totalsRowShown="0" headerRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}" name="top10Tbl" displayName="top10Tbl" ref="A28:B40" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="A28:B40" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55A47A86-D756-4F4B-91DC-2A60F981D702}" name="Videogames" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{D3F1A5A9-FC88-45C6-B782-2857884DF250}" name="Metacritic score (Top 10 green)" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{55A47A86-D756-4F4B-91DC-2A60F981D702}" name="Videogames" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D3F1A5A9-FC88-45C6-B782-2857884DF250}" name="Metacritic score" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}" name="uniqueDuplicatesTbl" displayName="uniqueDuplicatesTbl" ref="A44:B52" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}" name="uniqueDuplicatesTbl" displayName="uniqueDuplicatesTbl" ref="A44:B52" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A44:B52" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F1A9744-59D9-49DA-9333-092C9F83B785}" name="HighScores (Duplicate Red)" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{B112A37C-5FF1-4DA7-A0FD-F991E834872E}" name="Name (Unique: Yellow, Duplicate: Green)" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{2F1A9744-59D9-49DA-9333-092C9F83B785}" name="HighScores " dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B112A37C-5FF1-4DA7-A0FD-F991E834872E}" name="Name" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}" name="errorsTbl" displayName="errorsTbl" ref="K17:L23" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}" name="errorsTbl" displayName="errorsTbl" ref="K17:L23" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="K17:L23" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CD4489A5-710A-4FB8-B9F0-82ABBF6E2795}" name="Animals"/>
@@ -1696,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BD51E-2CE5-4044-B083-7E3E2BAED1E8}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,72 +1680,72 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="14" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="21">
+        <v>43</v>
+      </c>
+      <c r="B18" s="19">
         <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <f ca="1" xml:space="preserve"> TODAY() - 1</f>
         <v>45377</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L18">
         <f>5000+35</f>
@@ -2051,26 +1754,26 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="21">
+        <v>44</v>
+      </c>
+      <c r="B19" s="19">
         <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">TODAY()</f>
         <v>45378</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L19" t="e">
         <f>"5000T"+10</f>
@@ -2079,29 +1782,29 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="21">
+        <v>45</v>
+      </c>
+      <c r="B20" s="19">
         <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">TODAY()+1</f>
         <v>45379</v>
       </c>
       <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
         <v>87</v>
       </c>
-      <c r="G20" t="s">
-        <v>94</v>
-      </c>
       <c r="I20" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L20">
         <f>30+7</f>
@@ -2110,26 +1813,26 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="21">
+        <v>47</v>
+      </c>
+      <c r="B21" s="19">
         <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <f ca="1">TODAY() + 7</f>
         <v>45385</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L21" t="e">
         <f>MEDIAN(H56,Horse)</f>
@@ -2138,32 +1841,32 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="21">
+        <v>48</v>
+      </c>
+      <c r="B22" s="19">
         <v>500000</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4">
         <f ca="1">TODAY() + 8</f>
         <v>45386</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L22" t="e">
         <v>#REF!</v>
@@ -2171,29 +1874,29 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="21">
+        <v>49</v>
+      </c>
+      <c r="B23" s="19">
         <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4">
         <f ca="1">TODAY() + 9</f>
         <v>45387</v>
       </c>
       <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" t="s">
         <v>90</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>97</v>
       </c>
-      <c r="H23" t="s">
-        <v>104</v>
-      </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="L23">
         <f>55+7</f>
@@ -2202,53 +1905,53 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="21">
+        <v>50</v>
+      </c>
+      <c r="B24" s="19">
         <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4">
         <f ca="1">TODAY() + 10</f>
         <v>45388</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B29" s="10">
         <v>78</v>
@@ -2262,7 +1965,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B30" s="11">
         <v>32</v>
@@ -2276,7 +1979,7 @@
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B31" s="10">
         <v>46</v>
@@ -2290,7 +1993,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B32" s="11">
         <v>96</v>
@@ -2304,7 +2007,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" s="10">
         <v>91</v>
@@ -2318,7 +2021,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B34" s="11">
         <v>92</v>
@@ -2332,7 +2035,7 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" s="10">
         <v>79</v>
@@ -2346,7 +2049,7 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" s="11">
         <v>78</v>
@@ -2360,7 +2063,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B37" s="10">
         <v>45</v>
@@ -2374,7 +2077,7 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B38" s="11">
         <v>97</v>
@@ -2382,7 +2085,7 @@
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B39" s="10">
         <v>84</v>
@@ -2390,7 +2093,7 @@
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B40" s="11">
         <v>82</v>
@@ -2404,18 +2107,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>58</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>42</v>
+        <v>115</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2423,7 +2126,7 @@
         <v>667</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D45">
         <v>1999</v>
@@ -2437,7 +2140,7 @@
         <v>665</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D46">
         <v>2000</v>
@@ -2451,7 +2154,7 @@
         <v>420</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D47">
         <v>2001</v>
@@ -2465,7 +2168,7 @@
         <v>420</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48">
         <v>2002</v>
@@ -2479,7 +2182,7 @@
         <v>355</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49">
         <v>2003</v>
@@ -2493,7 +2196,7 @@
         <v>236</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>2004</v>
@@ -2507,7 +2210,7 @@
         <v>230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <v>2005</v>
@@ -2521,7 +2224,7 @@
         <v>125</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,39 +2428,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D45:D51">
-    <cfRule type="expression" dxfId="26" priority="16">
-      <formula>D45 &gt; 2002</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A45:A52">
-    <cfRule type="duplicateValues" dxfId="25" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:E51">
-    <cfRule type="expression" dxfId="24" priority="31">
-      <formula>ISNUMBER(E45) = FALSE</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33">
-      <formula>ISNUMBER(E45)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B52">
-    <cfRule type="uniqueValues" dxfId="22" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="between">
       <formula>250</formula>
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18:I24">
-    <cfRule type="containsBlanks" dxfId="19" priority="37">
-      <formula>LEN(TRIM(G18))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="18" priority="38">
-      <formula>LEN(TRIM(G18))&gt;0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B29:B40">
+    <cfRule type="top10" dxfId="15" priority="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B52">
+    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G13">
     <cfRule type="colorScale" priority="35">
@@ -2772,19 +2457,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C24">
-    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="blue">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="blue">
       <formula>NOT(ISERROR(SEARCH("blue",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D24">
-    <cfRule type="timePeriod" dxfId="16" priority="8" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="11" priority="8" timePeriod="tomorrow">
       <formula>FLOOR(D18,1)=TODAY()+1</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="15" priority="9" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="10" priority="9" timePeriod="today">
       <formula>FLOOR(D18,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="14" priority="10" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="9" priority="10" timePeriod="yesterday">
       <formula>FLOOR(D18,1)=TODAY()-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45:D51">
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>D45 &gt; 2002</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D79">
@@ -2802,19 +2492,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E37">
-    <cfRule type="aboveAverage" dxfId="13" priority="6" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="12" priority="7"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="6" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:E51">
+    <cfRule type="expression" dxfId="5" priority="31">
+      <formula>ISNUMBER(E45) = FALSE</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="33">
+      <formula>ISNUMBER(E45)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:I24">
+    <cfRule type="containsBlanks" dxfId="3" priority="37">
+      <formula>LEN(TRIM(G18))=0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="2" priority="38">
+      <formula>LEN(TRIM(G18))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L23">
-    <cfRule type="notContainsErrors" dxfId="9" priority="39">
+    <cfRule type="notContainsErrors" dxfId="1" priority="39">
       <formula>NOT(ISERROR(L18))</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="8" priority="41">
+    <cfRule type="containsErrors" dxfId="0" priority="41">
       <formula>ISERROR(L18)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29:B40">
-    <cfRule type="top10" dxfId="7" priority="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
+++ b/EPPlus.WebSampleMvc.NetCore/data/CfExport1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OssianEdström\Documents\Epplus_Repos\WebSamplenewnew\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OssianEdström\Documents\Epplus_Repos\WebSamplesClean\EPPlus.WebSamples\EPPlus.WebSampleMvc.NetCore\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48579244-F79F-450B-B2D8-14309CD4A97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BFEA4-988B-4BFC-8668-410251756AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4CABED9D-152D-43BF-B8F7-E002A4794690}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="131">
   <si>
     <t>City</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Data Bars</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
@@ -107,42 +104,6 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Cable TV</t>
-  </si>
-  <si>
-    <t>Car Insurance</t>
-  </si>
-  <si>
-    <t>Car Payment</t>
-  </si>
-  <si>
-    <t>Cell Phone</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
-    <t>Gym Membership</t>
-  </si>
-  <si>
-    <t>Hairdresser's</t>
-  </si>
-  <si>
-    <t>Hourse Rent</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Pet Care</t>
-  </si>
-  <si>
-    <t>Student Loan</t>
-  </si>
-  <si>
     <t>Expression</t>
   </si>
   <si>
@@ -384,6 +345,90 @@
   </si>
   <si>
     <t xml:space="preserve">Year of purchase </t>
+  </si>
+  <si>
+    <t>Iconsets</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>BG3</t>
+  </si>
+  <si>
+    <t>Sims 4</t>
+  </si>
+  <si>
+    <t>Hours 2022</t>
+  </si>
+  <si>
+    <t>Hours 2023</t>
+  </si>
+  <si>
+    <t>Super hot</t>
+  </si>
+  <si>
+    <t>Slay the spire</t>
+  </si>
+  <si>
+    <t>ME: Legendary edition</t>
+  </si>
+  <si>
+    <t>Don't Starve</t>
+  </si>
+  <si>
+    <t>Elden Ring</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Civ 5</t>
+  </si>
+  <si>
+    <t>Duck Game</t>
+  </si>
+  <si>
+    <t>DOOM: Eternal</t>
+  </si>
+  <si>
+    <t>SmartTv</t>
+  </si>
+  <si>
+    <t>MC Insurance</t>
+  </si>
+  <si>
+    <t>MC Payment</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>Energy bill</t>
+  </si>
+  <si>
+    <t>MC fuel</t>
+  </si>
+  <si>
+    <t>Fittness membership</t>
+  </si>
+  <si>
+    <t>Haircut</t>
+  </si>
+  <si>
+    <t>House loan</t>
+  </si>
+  <si>
+    <t>Broadband</t>
+  </si>
+  <si>
+    <t>Dog food</t>
+  </si>
+  <si>
+    <t>Loan Payment</t>
+  </si>
+  <si>
+    <t>Monthly item</t>
   </si>
 </sst>
 </file>
@@ -543,7 +588,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <font>
         <b/>
@@ -720,6 +765,9 @@
           <bgColor rgb="FFD9523B"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -945,8 +993,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFED9D9B"/>
       <color rgb="FFD65656"/>
-      <color rgb="FFED9D9B"/>
       <color rgb="FFEC4A4A"/>
       <color rgb="FFE4A4A4"/>
       <color rgb="FFE44743"/>
@@ -984,14 +1032,29 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9C9A905C-2D09-48CB-BBDC-5D0CB140587F}" name="tblIconSet" displayName="tblIconSet" ref="F67:I79" totalsRowShown="0">
+  <autoFilter ref="F67:I79" xr:uid="{9C9A905C-2D09-48CB-BBDC-5D0CB140587F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{44F1E7C2-4EEA-412C-A9B7-7AACDC04F0CC}" name="Games"/>
+    <tableColumn id="2" xr3:uid="{AA6C4468-045B-4A48-990B-D237A28402ED}" name="Hours 2022"/>
+    <tableColumn id="3" xr3:uid="{CE935084-99ED-4A4B-AAF1-264CFB961B91}" name="Hours 2023"/>
+    <tableColumn id="4" xr3:uid="{36EEE1EE-FBB6-40AE-8DCE-9E3F770956A5}" name="Difference" dataDxfId="18">
+      <calculatedColumnFormula>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}" name="tblDataBars" displayName="tblDataBars" ref="A67:D79" totalsRowShown="0">
   <autoFilter ref="A67:D79" xr:uid="{C5BE3727-A729-4BD2-9382-9268C6965C42}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D00BC406-9FEF-482C-AC80-FA77E1F21BF2}" name="Item"/>
-    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{D00BC406-9FEF-482C-AC80-FA77E1F21BF2}" name="Monthly item"/>
+    <tableColumn id="2" xr3:uid="{76E431B4-F288-434D-A793-CC01CCFF26A4}" name="June" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{0ED06A74-07A2-4C7D-A58D-3D118E19CF80}" name="July" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{8E522953-19FF-42A1-92AF-465D3E964839}" name="Difference" dataDxfId="34">
       <calculatedColumnFormula>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1011,7 +1074,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}" name="averageTbl" displayName="averageTbl" ref="D28:E37" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}" name="averageTbl" displayName="averageTbl" ref="D28:E37" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="D28:E37" xr:uid="{B53755AF-B624-4294-9552-77EFB99FBAAF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{96E735DE-A1C1-410A-BDDA-8BBC005E9646}" name="Locations"/>
@@ -1026,16 +1089,16 @@
   <autoFilter ref="A17:D24" xr:uid="{1667A648-8A15-4FC0-8C04-51C30B353BA9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{779307DB-7878-414C-93FD-F2200869FB37}" name="Wireless earbuds"/>
-    <tableColumn id="2" xr3:uid="{5B36E36F-5CF5-43EF-AFD0-2BB355AFB152}" name="Price " dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{5B36E36F-5CF5-43EF-AFD0-2BB355AFB152}" name="Price " dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{52897D8D-5C6E-474A-BD7D-7347CFD12E88}" name="Color Options "/>
-    <tableColumn id="4" xr3:uid="{4C8F154B-A419-4C4B-A46E-FEA25C6A3060}" name="Expected update " dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{4C8F154B-A419-4C4B-A46E-FEA25C6A3060}" name="Expected update " dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}" name="blanksTbl" displayName="blanksTbl" ref="F17:I24" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}" name="blanksTbl" displayName="blanksTbl" ref="F17:I24" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="F17:I24" xr:uid="{1858E26A-8F53-4623-AFAA-013D115D53B9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9E753DAE-994A-47D2-8211-3E40EA31EB9D}" name="Employee"/>
@@ -1048,29 +1111,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}" name="top10Tbl" displayName="top10Tbl" ref="A28:B40" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}" name="top10Tbl" displayName="top10Tbl" ref="A28:B40" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="A28:B40" xr:uid="{FCAA250E-855B-41AE-97AB-D7C285C7DEB9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{55A47A86-D756-4F4B-91DC-2A60F981D702}" name="Videogames" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{D3F1A5A9-FC88-45C6-B782-2857884DF250}" name="Metacritic score" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{55A47A86-D756-4F4B-91DC-2A60F981D702}" name="Videogames" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{D3F1A5A9-FC88-45C6-B782-2857884DF250}" name="Metacritic score" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}" name="uniqueDuplicatesTbl" displayName="uniqueDuplicatesTbl" ref="A44:B52" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}" name="uniqueDuplicatesTbl" displayName="uniqueDuplicatesTbl" ref="A44:B52" totalsRowShown="0" headerRowDxfId="26" dataDxfId="24" headerRowBorderDxfId="25" tableBorderDxfId="23" totalsRowBorderDxfId="22">
   <autoFilter ref="A44:B52" xr:uid="{13749D1F-93BD-42C0-9AF0-E7A4E4D6ECFB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F1A9744-59D9-49DA-9333-092C9F83B785}" name="HighScores " dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B112A37C-5FF1-4DA7-A0FD-F991E834872E}" name="Name" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{2F1A9744-59D9-49DA-9333-092C9F83B785}" name="HighScores " dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B112A37C-5FF1-4DA7-A0FD-F991E834872E}" name="Name" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}" name="errorsTbl" displayName="errorsTbl" ref="K17:L23" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}" name="errorsTbl" displayName="errorsTbl" ref="K17:L23" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="K17:L23" xr:uid="{9C9B8040-38C8-4DAC-98DE-2ED698608E28}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CD4489A5-710A-4FB8-B9F0-82ABBF6E2795}" name="Animals"/>
@@ -1399,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BD51E-2CE5-4044-B083-7E3E2BAED1E8}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,72 +1743,72 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B18" s="19">
         <v>239</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D18" s="4">
         <f ca="1" xml:space="preserve"> TODAY() - 1</f>
-        <v>45377</v>
+        <v>45431</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="L18">
         <f>5000+35</f>
@@ -1754,26 +1817,26 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B19" s="19">
         <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D19" s="4">
         <f ca="1">TODAY()</f>
-        <v>45378</v>
+        <v>45432</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="L19" t="e">
         <f>"5000T"+10</f>
@@ -1782,29 +1845,29 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B20" s="19">
         <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4">
         <f ca="1">TODAY()+1</f>
-        <v>45379</v>
+        <v>45433</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="L20">
         <f>30+7</f>
@@ -1813,26 +1876,26 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B21" s="19">
         <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D21" s="4">
         <f ca="1">TODAY() + 7</f>
-        <v>45385</v>
+        <v>45439</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="L21" t="e">
         <f>MEDIAN(H56,Horse)</f>
@@ -1841,32 +1904,32 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B22" s="19">
         <v>500000</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4">
         <f ca="1">TODAY() + 8</f>
-        <v>45386</v>
+        <v>45440</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" t="s">
         <v>92</v>
-      </c>
-      <c r="I22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" t="s">
-        <v>105</v>
       </c>
       <c r="L22" t="e">
         <v>#REF!</v>
@@ -1874,29 +1937,29 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B23" s="19">
         <v>289</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D23" s="4">
         <f ca="1">TODAY() + 9</f>
-        <v>45387</v>
+        <v>45441</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="L23">
         <f>55+7</f>
@@ -1905,53 +1968,53 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B24" s="19">
         <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D24" s="4">
         <f ca="1">TODAY() + 10</f>
-        <v>45388</v>
+        <v>45442</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B29" s="10">
         <v>78</v>
@@ -1965,7 +2028,7 @@
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B30" s="11">
         <v>32</v>
@@ -1979,7 +2042,7 @@
     </row>
     <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B31" s="10">
         <v>46</v>
@@ -1993,7 +2056,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B32" s="11">
         <v>96</v>
@@ -2007,7 +2070,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B33" s="10">
         <v>91</v>
@@ -2021,7 +2084,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B34" s="11">
         <v>92</v>
@@ -2035,7 +2098,7 @@
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B35" s="10">
         <v>79</v>
@@ -2049,7 +2112,7 @@
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B36" s="11">
         <v>78</v>
@@ -2063,7 +2126,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B37" s="10">
         <v>45</v>
@@ -2077,7 +2140,7 @@
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B38" s="11">
         <v>97</v>
@@ -2085,7 +2148,7 @@
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B39" s="10">
         <v>84</v>
@@ -2093,7 +2156,7 @@
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B40" s="11">
         <v>82</v>
@@ -2101,24 +2164,24 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2126,7 +2189,7 @@
         <v>667</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D45">
         <v>1999</v>
@@ -2140,7 +2203,7 @@
         <v>665</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D46">
         <v>2000</v>
@@ -2154,13 +2217,13 @@
         <v>420</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <v>2001</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,7 +2231,7 @@
         <v>420</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D48">
         <v>2002</v>
@@ -2182,13 +2245,13 @@
         <v>355</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D49">
         <v>2003</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2259,7 @@
         <v>236</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D50">
         <v>2004</v>
@@ -2210,13 +2273,13 @@
         <v>230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D51">
         <v>2005</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,228 +2287,413 @@
         <v>125</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>19</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>21</v>
       </c>
-      <c r="D67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" t="s">
+        <v>108</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C68" s="2">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D68" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68">
+        <v>10</v>
+      </c>
+      <c r="H68">
+        <v>300</v>
+      </c>
+      <c r="I68" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C69" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.30769230769230771</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>80</v>
+      </c>
+      <c r="I69" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="B70" s="2">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C70" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D70" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.1578947368421054E-2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C71" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D71" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-5.5555555555555552E-2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>20</v>
+      </c>
+      <c r="I71" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="B72" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D72" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>4.3478260869565216E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9.7345132743362831E-2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>200</v>
+      </c>
+      <c r="I72" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B73" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D73" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.25714285714285712</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14529914529914531</v>
+      </c>
+      <c r="F73" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>20</v>
+      </c>
+      <c r="I73" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B74" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.41666666666666669</v>
+      </c>
+      <c r="F74" t="s">
+        <v>113</v>
+      </c>
+      <c r="G74">
+        <v>150</v>
+      </c>
+      <c r="H74">
+        <v>20</v>
+      </c>
+      <c r="I74" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>-0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="B75" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D75" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>-0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.18181818181818182</v>
+      </c>
+      <c r="F75" t="s">
+        <v>114</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>150</v>
+      </c>
+      <c r="I75" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="B76" s="2">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C76" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D76" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>-0.05</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.15568862275449102</v>
+      </c>
+      <c r="F76" t="s">
+        <v>115</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>-0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="B77" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C77" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D77" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>-3.3333333333333333E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="F77" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77">
+        <v>20</v>
+      </c>
+      <c r="H77">
+        <v>123</v>
+      </c>
+      <c r="I77" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="B78" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D78" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.1875</v>
+      </c>
+      <c r="F78" t="s">
+        <v>117</v>
+      </c>
+      <c r="G78">
+        <v>90</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>-0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="B79" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C79" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D79" s="3">
         <f>(tblDataBars[[#This Row],[July]]-tblDataBars[[#This Row],[June]])/tblDataBars[[#This Row],[June]]</f>
-        <v>0.05</v>
+        <v>-0.17499999999999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79" s="3">
+        <f>tblIconSet[[#This Row],[Hours 2023]]/tblIconSet[[#This Row],[Hours 2022]]-1</f>
+        <v>0.19999999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A45:A52">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B24">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="between">
       <formula>250</formula>
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B40">
-    <cfRule type="top10" dxfId="15" priority="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="6" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B52">
-    <cfRule type="uniqueValues" dxfId="14" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="uniqueValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B68:B79">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="formula" val="30-5"/>
+        <cfvo type="formula" val="120-5"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24D561F3-C9BE-443C-AD45-37F36434896B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G13">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2457,28 +2705,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C24">
-    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="blue">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="blue">
       <formula>NOT(ISERROR(SEARCH("blue",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C68:C79">
+    <cfRule type="dataBar" priority="2">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5458FCFB-C965-4DCF-A2C7-3954E2FF0C3E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D18:D24">
-    <cfRule type="timePeriod" dxfId="11" priority="8" timePeriod="tomorrow">
+    <cfRule type="timePeriod" dxfId="11" priority="13" timePeriod="tomorrow">
       <formula>FLOOR(D18,1)=TODAY()+1</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="10" priority="9" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="10" priority="14" timePeriod="today">
       <formula>FLOOR(D18,1)=TODAY()</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="10" timePeriod="yesterday">
+    <cfRule type="timePeriod" dxfId="9" priority="15" timePeriod="yesterday">
       <formula>FLOOR(D18,1)=TODAY()-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D51">
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>D45 &gt; 2002</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D68:D79">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2492,36 +2754,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E37">
-    <cfRule type="aboveAverage" dxfId="7" priority="6" aboveAverage="0"/>
-    <cfRule type="aboveAverage" dxfId="6" priority="7"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="11" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E51">
-    <cfRule type="expression" dxfId="5" priority="31">
+    <cfRule type="expression" dxfId="5" priority="36">
       <formula>ISNUMBER(E45) = FALSE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="33">
+    <cfRule type="expression" dxfId="4" priority="38">
       <formula>ISNUMBER(E45)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G68:G79">
+    <cfRule type="iconSet" priority="4">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G18:I24">
-    <cfRule type="containsBlanks" dxfId="3" priority="37">
+    <cfRule type="containsBlanks" dxfId="3" priority="42">
       <formula>LEN(TRIM(G18))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="38">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="43">
       <formula>LEN(TRIM(G18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L23">
-    <cfRule type="notContainsErrors" dxfId="1" priority="39">
+    <cfRule type="notContainsErrors" dxfId="1" priority="44">
       <formula>NOT(ISERROR(L18))</formula>
     </cfRule>
-    <cfRule type="containsErrors" dxfId="0" priority="41">
+    <cfRule type="containsErrors" dxfId="0" priority="46">
       <formula>ISERROR(L18)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2531,10 +2802,38 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24D561F3-C9BE-443C-AD45-37F36434896B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="formula">
+                <xm:f>30-5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>120-5</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B68:B79</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5458FCFB-C965-4DCF-A2C7-3954E2FF0C3E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFED9D9B"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C68:C79</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8DADE4BE-191E-4A96-91F5-C800E0B77060}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -2548,6 +2847,56 @@
           </x14:cfRule>
           <xm:sqref>D68:D79</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{462FA517-799F-46DC-A679-14ACE54492E7}">
+            <x14:iconSet iconSet="5Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>20</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>40</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>60</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>80</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Flags" iconId="0"/>
+              <x14:cfIcon iconSet="4Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Triangles" iconId="1"/>
+              <x14:cfIcon iconSet="4Arrows" iconId="2"/>
+              <x14:cfIcon iconSet="3Flags" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H68:H79</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{DF1B2F4E-D88B-402C-BF1F-467A4E628D4D}">
+            <x14:iconSet iconSet="4Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="4ArrowsGray" iconId="2"/>
+              <x14:cfIcon iconSet="4Arrows" iconId="2"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I68:I79</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
